--- a/biology/Botanique/Epiphyllum_phyllanthus/Epiphyllum_phyllanthus.xlsx
+++ b/biology/Botanique/Epiphyllum_phyllanthus/Epiphyllum_phyllanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum phyllanthus, communément appelé cactus grimpant ou belle de nuit ou latcho caïman [latjo-kayman] (queue caïman), est une espèce de cactus épiphytes appartenant à la famille des Cactaceae.
 Il se caractérise par ses tiges aplaties et segmentées qui effectuent la photosynthèse, et ses grandes fleurs blanches ou roses qui s'ouvrent la nuit et dégagent un fort parfum.
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum phyllanthus est un cactus sans feuilles, dont les tiges sont formées de segments aplatis et dentés, mesurant de 10 à 40 cm de long et de 2 à 6 cm de large. Les tiges sont de couleur vert clair à vert foncé, et portent des aréoles avec quelques épines fines et courtes.
-Les fleurs sont solitaires ou groupées à l'extrémité des tiges, et apparaissent entre avril et juin. Elles sont en forme de trompette, mesurant de 10 à 20 cm de long et de 8 à 15 cm de diamètre. Elles sont de couleur blanche ou rose, avec des étamines jaunes et un style blanc. Elles s'ouvrent la nuit et se ferment le matin, et émettent un parfum sucré qui attire les pollinisateurs nocturnes, comme les papillons de nuit notamment les sphinx[1].
-Les fruits sont des baies charnues, de forme ovale, mesurant de 5 à 10 cm de long et de 3 à 5 cm de diamètre. Ils sont de couleur rouge, orange ou jaune, et contiennent de nombreuses graines noires. Les fruits ont la particularité de germer alors qu'ils sont encore sur le pied-mère, c'est un cas de viviparité végétale[2].
+Les fleurs sont solitaires ou groupées à l'extrémité des tiges, et apparaissent entre avril et juin. Elles sont en forme de trompette, mesurant de 10 à 20 cm de long et de 8 à 15 cm de diamètre. Elles sont de couleur blanche ou rose, avec des étamines jaunes et un style blanc. Elles s'ouvrent la nuit et se ferment le matin, et émettent un parfum sucré qui attire les pollinisateurs nocturnes, comme les papillons de nuit notamment les sphinx.
+Les fruits sont des baies charnues, de forme ovale, mesurant de 5 à 10 cm de long et de 3 à 5 cm de diamètre. Ils sont de couleur rouge, orange ou jaune, et contiennent de nombreuses graines noires. Les fruits ont la particularité de germer alors qu'ils sont encore sur le pied-mère, c'est un cas de viviparité végétale.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epiphyllum phyllanthus est une espèce native des régions tropicales d'Amérique centrale et du Sud, depuis le Mexique jusqu'au Brésil et au Paraguay. Il pousse dans les forêts humides, sur les arbres ou les rochers, à des altitudes comprises entre 0 et 2000 m. Il est souvent associé à l'arbre Platypodium elegans, dont il colonise les cavités du tronc[3]. Il est considéré comme une plante envahissante dans certaines îles du Pacifique, comme Hawaï, où il menace la biodiversité locale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epiphyllum phyllanthus est une espèce native des régions tropicales d'Amérique centrale et du Sud, depuis le Mexique jusqu'au Brésil et au Paraguay. Il pousse dans les forêts humides, sur les arbres ou les rochers, à des altitudes comprises entre 0 et 2000 m. Il est souvent associé à l'arbre Platypodium elegans, dont il colonise les cavités du tronc. Il est considéré comme une plante envahissante dans certaines îles du Pacifique, comme Hawaï, où il menace la biodiversité locale.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum phyllanthus est une plante facile à cultiver, qui demande un substrat léger et drainant, une exposition lumineuse mais sans soleil direct, et des arrosages réguliers mais modérés. Il supporte des températures comprises entre 10 et 35 °C, mais craint le gel. Il se multiplie par bouturage des segments de tige, ou par semis des graines. Il fleurit généralement au printemps ou en été, mais peut aussi fleurir à d'autres périodes de l'année selon les conditions de culture.
 Il existe de nombreux hybrides et cultivars d'Epiphyllum phyllanthus, appelés cactus orchidée, qui présentent des fleurs de différentes formes et couleurs, allant du blanc au rouge en passant par le jaune, le rose, le violet ou le orange. Ces variétés sont très appréciées des amateurs de cactus et des collectionneurs.
